--- a/SeniorProject/static/uploads/October Transaction 2019.xlsx
+++ b/SeniorProject/static/uploads/October Transaction 2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Status</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>Caviar</t>
-  </si>
-  <si>
-    <t>Online scheduled transfer from CHK 2946                     Confirmation# xxxxxx5174</t>
-  </si>
-  <si>
-    <t>Transfers</t>
-  </si>
-  <si>
-    <t>Online transfer from CHK 2946 Confirmation# XX5174</t>
   </si>
   <si>
     <t>7-ELEVEN        11/03 #xxxxx3557 PURCHASE                   7-ELEVEN           BRYN MAWR     PA</t>
@@ -937,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,19 +1045,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>43776</v>
+        <v>43773</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4">
-        <v>250</v>
+        <v>-29.83</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -1075,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1086,7 +1077,7 @@
         <v>43773</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1095,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>-29.83</v>
+        <v>-8.6199999999999992</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -1115,7 +1106,7 @@
         <v>43773</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1124,7 +1115,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>-8.6199999999999992</v>
+        <v>-14.83</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -1133,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1144,16 +1135,16 @@
         <v>43773</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7">
-        <v>-14.83</v>
+        <v>-10.59</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -1176,13 +1167,13 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8">
-        <v>-10.59</v>
+        <v>-13.9</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -1191,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1202,16 +1193,16 @@
         <v>43773</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9">
-        <v>-13.9</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -1221,35 +1212,6 @@
       </c>
       <c r="L9" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43773</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
